--- a/data/trans_orig/P78_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA8BB79-E079-40F1-9559-CBE860B4830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEE1EFE-1853-475E-B18A-82F5E6A2CD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3C5B4C6-170E-46D3-9CD5-FDEEE9CE7DCF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2079127-50A1-4D1F-AD52-26F4E4149B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="300">
   <si>
     <t>Población según número de retrasos en pagos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -296,193 +296,193 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>3,73%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>3,52%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -491,7 +491,7 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -500,457 +500,445 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
     <t>2,88%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>3,08%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>88,37%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E688EC6-07D9-4436-86C2-8287ADCFBDE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BDB232-A208-49C9-91C9-4ED19064F6AD}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3922,7 +3910,7 @@
         <v>6511</v>
       </c>
       <c r="N51" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>15</v>
@@ -3973,7 +3961,7 @@
         <v>6511</v>
       </c>
       <c r="N52" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>17</v>
@@ -4009,7 +3997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414006DF-82E2-49DF-90D4-38EDE565238F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0053FF-70B8-4DA2-B189-AA6BA684FB23}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6656,7 +6644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148571CE-4597-49E8-8DF9-2B3B43D4EDFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23575CA-2A08-4C54-BC7D-646300788FF8}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8139,7 +8127,7 @@
         <v>1184</v>
       </c>
       <c r="N30" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>
@@ -8190,7 +8178,7 @@
         <v>1184</v>
       </c>
       <c r="N31" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>17</v>
@@ -9303,7 +9291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26E4E35-DF82-4F63-832B-0FBBE25AB3FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAFBBE4-5CF1-4184-8251-76BA872990B1}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10232,7 +10220,7 @@
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10385,7 +10373,7 @@
         <v>171</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10400,13 +10388,13 @@
         <v>481927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7">
         <v>761</v>
@@ -10415,13 +10403,13 @@
         <v>543594</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M23" s="7">
         <v>1237</v>
@@ -10430,13 +10418,13 @@
         <v>1025521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10519,13 +10507,13 @@
         <v>729</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -10534,13 +10522,13 @@
         <v>729</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10570,13 +10558,13 @@
         <v>777</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -10585,13 +10573,13 @@
         <v>777</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10624,7 +10612,7 @@
         <v>148</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>186</v>
@@ -10642,7 +10630,7 @@
         <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10884,7 +10872,7 @@
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10899,7 +10887,7 @@
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10944,13 +10932,13 @@
         <v>637</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10971,7 +10959,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -10986,7 +10974,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -11001,7 +10989,7 @@
         <v>151</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11016,13 +11004,13 @@
         <v>14965</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -11031,13 +11019,13 @@
         <v>12808</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>35</v>
@@ -11046,13 +11034,13 @@
         <v>27773</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11067,13 +11055,13 @@
         <v>51199</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H36" s="7">
         <v>90</v>
@@ -11082,13 +11070,13 @@
         <v>58867</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>145</v>
@@ -11097,13 +11085,13 @@
         <v>110065</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11118,13 +11106,13 @@
         <v>525886</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>881</v>
@@ -11133,13 +11121,13 @@
         <v>514967</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M37" s="7">
         <v>1465</v>
@@ -11148,13 +11136,13 @@
         <v>1040853</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11330,7 +11318,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -11345,7 +11333,7 @@
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -11354,13 +11342,13 @@
         <v>1639</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11375,13 +11363,13 @@
         <v>20305</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H42" s="7">
         <v>41</v>
@@ -11390,13 +11378,13 @@
         <v>25792</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M42" s="7">
         <v>68</v>
@@ -11405,13 +11393,13 @@
         <v>46098</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11426,13 +11414,13 @@
         <v>53814</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H43" s="7">
         <v>126</v>
@@ -11441,13 +11429,13 @@
         <v>76705</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M43" s="7">
         <v>202</v>
@@ -11456,13 +11444,13 @@
         <v>130519</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11477,13 +11465,13 @@
         <v>618042</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H44" s="7">
         <v>1527</v>
@@ -11492,13 +11480,13 @@
         <v>915899</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M44" s="7">
         <v>2445</v>
@@ -11507,13 +11495,13 @@
         <v>1533941</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11596,13 +11584,13 @@
         <v>1425</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -11611,7 +11599,7 @@
         <v>1425</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
@@ -11650,10 +11638,10 @@
         <v>47</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -11668,7 +11656,7 @@
         <v>188</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11686,10 +11674,10 @@
         <v>76</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>277</v>
+        <v>186</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
@@ -11701,10 +11689,10 @@
         <v>63</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M48" s="7">
         <v>15</v>
@@ -11716,7 +11704,7 @@
         <v>38</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>116</v>
@@ -11734,13 +11722,13 @@
         <v>96141</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H49" s="7">
         <v>121</v>
@@ -11749,13 +11737,13 @@
         <v>94914</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M49" s="7">
         <v>211</v>
@@ -11764,13 +11752,13 @@
         <v>191055</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11785,13 +11773,13 @@
         <v>289004</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H50" s="7">
         <v>422</v>
@@ -11800,13 +11788,13 @@
         <v>328207</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M50" s="7">
         <v>695</v>
@@ -11815,13 +11803,13 @@
         <v>617211</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11836,13 +11824,13 @@
         <v>2945226</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H51" s="7">
         <v>4762</v>
@@ -11851,13 +11839,13 @@
         <v>3354587</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M51" s="7">
         <v>7737</v>
@@ -11866,13 +11854,13 @@
         <v>6299813</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P78_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEE1EFE-1853-475E-B18A-82F5E6A2CD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{129D045D-088A-4B36-B796-CB31EB8EAABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2079127-50A1-4D1F-AD52-26F4E4149B1E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72E7BE2E-9D2D-45AB-AA2A-4809A3DD560C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -254,7 +254,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>Población según número de retrasos en pagos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según número de retrasos en pagos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BDB232-A208-49C9-91C9-4ED19064F6AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21273A54-8EDC-4A92-8584-ED9819D748FE}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3880,7 +3880,7 @@
         <v>3214</v>
       </c>
       <c r="D51" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>15</v>
@@ -3931,7 +3931,7 @@
         <v>3214</v>
       </c>
       <c r="D52" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>17</v>
@@ -3997,7 +3997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0053FF-70B8-4DA2-B189-AA6BA684FB23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A723D6-D290-4E3E-B82F-88E7C7C62A33}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6644,7 +6644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23575CA-2A08-4C54-BC7D-646300788FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76082CB4-08F3-472E-ABCA-353F57EF937E}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8127,7 +8127,7 @@
         <v>1184</v>
       </c>
       <c r="N30" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>
@@ -8178,7 +8178,7 @@
         <v>1184</v>
       </c>
       <c r="N31" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>17</v>
@@ -9291,7 +9291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAFBBE4-5CF1-4184-8251-76BA872990B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E849D174-CEAD-4506-91E5-CD9771B4A344}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
